--- a/another_results.xlsx
+++ b/another_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Theory_py\theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE96615E-F628-413E-A0DE-A9DE55DA1AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8869CE6-CD30-4C20-A3F8-701EB5BE7A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4740" windowWidth="21600" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="another_results" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>surface_energy</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>break_force</t>
+  </si>
+  <si>
+    <t>curing_time</t>
   </si>
 </sst>
 </file>
@@ -365,138 +368,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="S9" sqref="E1:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1">
         <v>34</v>
       </c>
-      <c r="B2">
-        <v>3.2</v>
-      </c>
       <c r="C2">
+        <v>3.2</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1">
         <v>44</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>3.1</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1">
         <v>44</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>3.1</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>9.1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
         <v>44</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>3.3</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6">
         <v>34</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>24</v>
+      </c>
+      <c r="B7">
         <v>44</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>2.6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8">
         <v>41</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>0.2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>24</v>
+      </c>
+      <c r="B9">
         <v>39</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>1.8</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>24</v>
+      </c>
+      <c r="B10">
         <v>43</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>1.2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>24</v>
+      </c>
+      <c r="B11">
         <v>44</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>1.5</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>72</v>
+      </c>
+      <c r="B18" s="2">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>168</v>
+      </c>
+      <c r="B19" s="2">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
